--- a/Products.xlsx
+++ b/Products.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">category</t>
+    <t xml:space="preserve">category_id</t>
   </si>
   <si>
     <t xml:space="preserve">brand</t>
@@ -41,10 +41,10 @@
     <t xml:space="preserve">characters</t>
   </si>
   <si>
-    <t xml:space="preserve">owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volume</t>
+    <t xml:space="preserve">supplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meas_type</t>
   </si>
   <si>
     <t xml:space="preserve">available_in_stock</t>
@@ -68,22 +68,28 @@
     <t xml:space="preserve">image_2</t>
   </si>
   <si>
-    <t xml:space="preserve">dnsdknskdjnsjlkdnsjdnsjlkd</t>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inventory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12asasa</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">dota_2_igra_logotip_fon_92935_1920x1080.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESQCvH0mpGc.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSJ6EBorAEE.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAYAT PREMIUM FASAD Краска для нар. работ силикон</t>
+    <t xml:space="preserve">522930_322585751136980_1114591616_n.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12asasa2</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;Предназначена для наржной окраски зданий и сооружений, по кирпичным и бетонным, деревянным и другим пористым покрытиям по загрунтованной поверхности металла&lt;/p&gt;</t>
@@ -92,52 +98,55 @@
     <t xml:space="preserve">&lt;p&gt;Test info&lt;/p&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">562582_366523656743189_2076864488_n.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12asasa3</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">HAYAT EXTRA Пена монтажная (аплик/пист) 700/750)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAYAT ECO Эмаль Универсал (белая)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">awesome-rain-wallpaper_0.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAYAT ECO INTERIOR Краска для потолков</t>
+    <t xml:space="preserve">600589_564887363573483_974802216_n.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12asasa4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64004_564888026906750_1756100687_n.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12asasa5</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;Предназначена для отделочных работ внутри помещения (стен и потолков) и для нанесения по дереву, картону и другим пористым поверхностям.&lt;/p&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">wire2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VGjc50U.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FASAD+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eko (половая)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seo-fon_0I6POl8.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Econom 118 (белая)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxresdefault.jpg</t>
+    <t xml:space="preserve">VII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12asasa6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12asasa7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12asasa8</t>
   </si>
   <si>
     <t xml:space="preserve">quantity</t>
   </si>
   <si>
     <t xml:space="preserve">product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">color</t>
   </si>
   <si>
     <t xml:space="preserve">1kg</t>
@@ -156,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -186,10 +195,18 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11.5"/>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -201,11 +218,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFC000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -235,7 +261,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,7 +278,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -269,6 +303,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF6A8759"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -277,12 +371,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="R2" activeCellId="0" sqref="R2:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -292,10 +386,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="11.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="40.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="14" style="0" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.48"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -341,308 +437,395 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>12200</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>2500</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>1010000</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>3400</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>4300</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>58000</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>5200</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>55000</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>6100</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>12200</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="n">
+      <c r="C7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>52000</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>7000</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>51000</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>7900</v>
+      </c>
+      <c r="R8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1010000</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>60000</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>58000</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="S8" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>55000</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>52000</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="M9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>51000</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="0" t="s">
+      <c r="P9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>8800</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" s="0" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>50000</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -663,8 +846,8 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="R2:R9 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -683,13 +866,13 @@
         <v>10</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,7 +880,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1000</v>
@@ -705,7 +888,7 @@
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="7" t="n">
         <v>37</v>
       </c>
       <c r="F2" s="0" t="n">
@@ -714,7 +897,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2000</v>
@@ -722,10 +905,10 @@
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -734,7 +917,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1500</v>
@@ -742,7 +925,7 @@
       <c r="D4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="7" t="n">
         <v>37</v>
       </c>
       <c r="F4" s="0" t="n">
@@ -751,7 +934,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1000</v>
@@ -759,7 +942,7 @@
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="7" t="n">
         <v>37</v>
       </c>
       <c r="F5" s="0" t="n">
@@ -768,7 +951,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2000</v>
@@ -776,16 +959,16 @@
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1500</v>
@@ -793,7 +976,7 @@
       <c r="D7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="7" t="n">
         <v>37</v>
       </c>
       <c r="F7" s="0" t="n">
